--- a/medicine/Psychotrope/Labatt_50/Labatt_50.xlsx
+++ b/medicine/Psychotrope/Labatt_50/Labatt_50.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Labatt 50 est une bière blonde canadienne de type ale contenant une concentration de 5 % d'alcool par volume.  Elle est brassée par la compagnie Labatt.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">John et Hugh Labatt, petit-fils de John Labatt, ont lancé la Labatt 50 en 1950 pour commémorer leurs 50 ans de partenariat. La bière fut la première bière au goût léger à être introduite au Canada. Elle fut la plus vendue au Canada jusqu'en 1979 lorsqu'elle fut surpassée par la Labatt Bleue.
 John et Hugh Labatt, petits-fils du fondateur John K. Labatt, ont lancé Labatt 50 en 1950 pour célébrer le cinquantième anniversaire de leur association. Première ale au goût léger produite au Canada, Labatt 50 a été la bière la plus vendue au pays jusqu'en 1979, alors qu'elle a été détrônée par Labatt Bleue au moment où les lagers ont gagné la faveur populaire. Labatt 50 est fermentée à partir d'une levure spéciale, qui est utilisée chez Labatt depuis 1933. Brassée à partir de houblons nord-américains spécialement sélectionnés, offrant un goût sec équilibré agrémenté de flaveurs fruitées, Labatt 50 comporte toutes les caractéristiques d'une vraie ale.
